--- a/奋斗日程.xlsx
+++ b/奋斗日程.xlsx
@@ -1,70 +1,521 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jianjun Huang\Desktop\黄健钧\学习\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47003192-19F2-4689-B3BE-BFDBA6A7A28D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="4695" windowWidth="21600" windowHeight="11385" xr2:uid="{199A1E2F-38FA-454A-BEFE-BA45748D8791}"/>
+    <workbookView windowWidth="14400" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Linux系统编程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>王道考研</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>数据结构 与 算法</t>
+  </si>
+  <si>
+    <t>Linux网络编程</t>
+  </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>黑马P1~4
+系统安装、目录和文件操作</t>
+  </si>
+  <si>
+    <t>数组：
+33、搜索插入位置---二分查找（简单）
+27、移除元素---快慢指针思想（简单）
+209、长度最小子数组---滑动窗口（中等）
+59、螺旋矩阵II---循环不变量原则（中等）</t>
+  </si>
+  <si>
+    <t>黑马P5~11
+软链接和硬链接
+创建修改用户和用户组
+查找与检索</t>
+  </si>
+  <si>
+    <t>链表：
+203、删除链表元素---虚拟头结点（简单）
+707、设计链表---考察操作（中等）
+206、反转链表---基础但容易忘（简单）
+142、环形链表II---快慢指针（中等）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">必知必会：
+第13章 分组数据
+第14章 使用子查询
+</t>
+  </si>
+  <si>
+    <t>计算机组成原理：
+P29~P38</t>
+  </si>
+  <si>
+    <t>黑马P12~17
+软件包安装与卸载
+压缩与解压缩
+其他指令</t>
+  </si>
+  <si>
+    <t>哈希表：
+242、有效的字母异位词---数组哈希（简单）
+349、连个数组的交集---无序set（简单）
+202、快乐数---递归实现（简单）
+1、两数之和---无序map（简单）
+字符串：
+344、反转字符串---双指针（简单）</t>
+  </si>
+  <si>
+    <t>必知必会：
+第15章 联结表
+第16章 创建高级联结</t>
+  </si>
+  <si>
+    <t>c++ primer：
+第11章 关联容器</t>
+  </si>
+  <si>
+    <t>黑马P18~24
+vim的操作指令</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+哈希表：
+15、三数之和---排序+双指针（中等）
+18、四数之和---排序+双指针（中等）
+454、四数相加II---分组+哈希（中等）
+字符串：
+541、反转字符串II---（简单）</t>
+  </si>
+  <si>
+    <t>必知必会：
+第17章 组合查询
+第18章 全文本搜索</t>
+  </si>
+  <si>
+    <t>黑马P25~27
+gcc的四大步骤及指令</t>
+  </si>
+  <si>
+    <t>哈希表：
+383、赎金信---数组哈希（简单）
+字符串： 
+剑指offer 05、替换空格---尾部双指针（简单）
+剑指offer 58、左旋转字符串---拼接（简单）
+151、翻转字符串里的单词---多指针（中等）</t>
+  </si>
+  <si>
+    <t>必知必会：
+第19章 插入数据
+第20章 更新和删除数据</t>
+  </si>
+  <si>
+    <t>c++ primer：
+try  throw  catch语句
+函数指针</t>
+  </si>
+  <si>
+    <t>黑马P28~36
+静态库、共享库</t>
+  </si>
+  <si>
+    <t>字符串：
+28、实现strStr()---KMP算法（简单）
+459、重复的子字符串---KMP的应用（简单）
+队列
+232、用栈实现队列---基础（简单）
+225、用队列实现栈---基础（简单）</t>
+  </si>
+  <si>
+    <t>必知必会：
+第21章 创建与操纵表
+第22章 使用试图</t>
+  </si>
+  <si>
+    <t>字符串的KMP算法</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -72,34 +523,326 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -148,7 +891,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -181,26 +924,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -233,23 +959,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,45 +1100,498 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C607442B-67F9-4672-8C61-23DA21CBC66D}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="3" max="3" width="40.25" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" ht="79.5" customHeight="1" spans="1:10">
+      <c r="A2" s="3">
         <v>44297</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" ht="76.5" customHeight="1" spans="1:10">
+      <c r="A3" s="3">
+        <v>44298</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" ht="124.5" customHeight="1" spans="1:10">
+      <c r="A4" s="3">
+        <v>44299</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" ht="126.75" customHeight="1" spans="1:10">
+      <c r="A5" s="3">
+        <v>44300</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" ht="99.75" customHeight="1" spans="1:10">
+      <c r="A6" s="3">
+        <v>44301</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" ht="90" customHeight="1" spans="1:10">
+      <c r="A7" s="3">
+        <v>44302</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/奋斗日程.xlsx
+++ b/奋斗日程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12390"/>
+    <workbookView windowWidth="17745" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,30 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Linux系统编程</t>
   </si>
   <si>
-    <t>Leetcode</t>
+    <t>Leetcode（36）</t>
   </si>
   <si>
     <t>MySQL</t>
   </si>
   <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>数据结构 与 算法</t>
+  </si>
+  <si>
+    <t>Linux网络编程</t>
+  </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
     <t>王道考研</t>
-  </si>
-  <si>
-    <t>C++</t>
-  </si>
-  <si>
-    <t>数据结构 与 算法</t>
-  </si>
-  <si>
-    <t>Linux网络编程</t>
-  </si>
-  <si>
-    <t>redis</t>
   </si>
   <si>
     <t>黑马P1~4
@@ -145,7 +145,7 @@
     <t>字符串：
 28、实现strStr()---KMP算法（简单）
 459、重复的子字符串---KMP的应用（简单）
-队列
+栈与队列：
 232、用栈实现队列---基础（简单）
 225、用队列实现栈---基础（简单）</t>
   </si>
@@ -156,6 +156,48 @@
   </si>
   <si>
     <t>字符串的KMP算法</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>栈与队列：
+20、有效括号---哈希表（简单） 
+1047、删除字符串的所有相邻重复项---（简单）
+150、逆波兰表达式求值---思路（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>239、滑动窗口最大值---单调队列（困难）</t>
+    </r>
+  </si>
+  <si>
+    <t>必知必会：
+第23章 使用存储过程
+第24章 使用游标</t>
   </si>
 </sst>
 </file>
@@ -163,12 +205,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +219,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -186,76 +272,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,14 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -291,33 +326,55 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -330,91 +387,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,90 +568,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,23 +610,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,7 +635,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,8 +658,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,10 +686,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,137 +698,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,6 +843,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1106,24 +1166,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
-    <col min="3" max="3" width="40.25" customWidth="1"/>
+    <col min="3" max="3" width="41.4166666666667" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="7" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="5" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1149,9 +1209,8 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" ht="79.5" customHeight="1" spans="1:10">
+    </row>
+    <row r="2" ht="79.5" customHeight="1" spans="1:9">
       <c r="A2" s="3">
         <v>44297</v>
       </c>
@@ -1167,9 +1226,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" ht="76.5" customHeight="1" spans="1:10">
+    </row>
+    <row r="3" ht="76.5" customHeight="1" spans="1:9">
       <c r="A3" s="3">
         <v>44298</v>
       </c>
@@ -1182,16 +1240,15 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" ht="124.5" customHeight="1" spans="1:10">
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="124.5" customHeight="1" spans="1:9">
       <c r="A4" s="3">
         <v>44299</v>
       </c>
@@ -1204,16 +1261,15 @@
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" ht="126.75" customHeight="1" spans="1:10">
+    </row>
+    <row r="5" ht="126.75" customHeight="1" spans="1:9">
       <c r="A5" s="3">
         <v>44300</v>
       </c>
@@ -1231,9 +1287,8 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" ht="99.75" customHeight="1" spans="1:10">
+    </row>
+    <row r="6" ht="99.75" customHeight="1" spans="1:9">
       <c r="A6" s="3">
         <v>44301</v>
       </c>
@@ -1246,16 +1301,15 @@
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" ht="90" customHeight="1" spans="1:10">
+    </row>
+    <row r="7" ht="90" customHeight="1" spans="1:9">
       <c r="A7" s="3">
         <v>44302</v>
       </c>
@@ -1269,27 +1323,31 @@
         <v>27</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
+    </row>
+    <row r="8" ht="90" customHeight="1" spans="1:9">
+      <c r="A8" s="3">
+        <v>44303</v>
+      </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1299,9 +1357,8 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1311,9 +1368,8 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1323,9 +1379,8 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1335,9 +1390,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1347,9 +1401,8 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1359,9 +1412,8 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1371,9 +1423,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1383,9 +1434,8 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10">
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1395,9 +1445,8 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10">
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1407,9 +1456,8 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10">
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1419,9 +1467,8 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10">
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1431,9 +1478,8 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10">
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1443,9 +1489,8 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10">
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1455,9 +1500,8 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10">
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1467,9 +1511,8 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10">
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1479,9 +1522,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10">
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1491,9 +1533,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10">
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1503,9 +1544,8 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10">
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1515,9 +1555,8 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10">
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1527,9 +1566,8 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10">
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1539,9 +1577,8 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10">
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1551,9 +1588,8 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10">
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1563,9 +1599,8 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10">
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1575,9 +1610,8 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10">
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1587,7 +1621,6 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/奋斗日程.xlsx
+++ b/奋斗日程.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Linux系统编程</t>
   </si>
   <si>
-    <t>Leetcode（36）</t>
+    <t>Leetcode</t>
   </si>
   <si>
     <t>MySQL</t>
@@ -44,11 +44,50 @@
 系统安装、目录和文件操作</t>
   </si>
   <si>
-    <t>数组：
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">数组：
 33、搜索插入位置---二分查找（简单）
 27、移除元素---快慢指针思想（简单）
-209、长度最小子数组---滑动窗口（中等）
-59、螺旋矩阵II---循环不变量原则（中等）</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>209、长度最小子数组---滑动窗口（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>59、螺旋矩阵II---循环不变量原则（中等）</t>
+    </r>
   </si>
   <si>
     <t>黑马P5~11
@@ -57,11 +96,50 @@
 查找与检索</t>
   </si>
   <si>
-    <t>链表：
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">链表：
 203、删除链表元素---虚拟头结点（简单）
-707、设计链表---考察操作（中等）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>707、设计链表---考察操作（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 206、反转链表---基础但容易忘（简单）
-142、环形链表II---快慢指针（中等）</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>142、环形链表II---快慢指针（中等）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">必知必会：
@@ -102,13 +180,41 @@
 vim的操作指令</t>
   </si>
   <si>
-    <t xml:space="preserve">
-哈希表：
-15、三数之和---排序+双指针（中等）
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">哈希表：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15、三数之和---排序+双指针（中等）
 18、四数之和---排序+双指针（中等）
-454、四数相加II---分组+哈希（中等）
+454、四数相加II---分组+哈希（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 字符串：
 541、反转字符串II---（简单）</t>
+    </r>
   </si>
   <si>
     <t>必知必会：
@@ -120,12 +226,31 @@
 gcc的四大步骤及指令</t>
   </si>
   <si>
-    <t>哈希表：
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">哈希表：
 383、赎金信---数组哈希（简单）
 字符串： 
 剑指offer 05、替换空格---尾部双指针（简单）
 剑指offer 58、左旋转字符串---拼接（简单）
-151、翻转字符串里的单词---多指针（中等）</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>151、翻转字符串里的单词---多指针（中等）</t>
+    </r>
   </si>
   <si>
     <t>必知必会：
@@ -166,10 +291,20 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>栈与队列：
+      <t xml:space="preserve">栈与队列：
 20、有效括号---哈希表（简单） 
 1047、删除字符串的所有相邻重复项---（简单）
-150、逆波兰表达式求值---思路（中等）</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>150、逆波兰表达式求值---思路（中等）</t>
     </r>
     <r>
       <rPr>
@@ -198,6 +333,74 @@
     <t>必知必会：
 第23章 使用存储过程
 第24章 使用游标</t>
+  </si>
+  <si>
+    <t>黑马P37~40
+gdb调试</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>队列：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+347、前K个高频元素---最小堆优先序列（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>71、简化路径---（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>必知必会：
+第25章 使用触发器
+第26章 管理事务处理</t>
+  </si>
+  <si>
+    <t>STL：
+priority_queue</t>
   </si>
 </sst>
 </file>
@@ -205,12 +408,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +422,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -226,53 +451,78 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,80 +536,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,13 +597,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,169 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,17 +788,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -603,15 +802,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,7 +825,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,24 +880,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,10 +896,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,7 +908,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,128 +917,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,6 +1052,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1168,8 +1381,8 @@
   <sheetPr/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1217,7 +1430,7 @@
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1"/>
@@ -1234,7 +1447,7 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1248,7 +1461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="124.5" customHeight="1" spans="1:9">
+    <row r="4" ht="108" customHeight="1" spans="1:9">
       <c r="A4" s="3">
         <v>44299</v>
       </c>
@@ -1269,14 +1482,14 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" ht="126.75" customHeight="1" spans="1:9">
+    <row r="5" ht="91" customHeight="1" spans="1:9">
       <c r="A5" s="3">
         <v>44300</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1295,7 +1508,7 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1330,12 +1543,12 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" ht="90" customHeight="1" spans="1:9">
+    <row r="8" ht="82" customHeight="1" spans="1:9">
       <c r="A8" s="3">
         <v>44303</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1347,12 +1560,22 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+    <row r="9" ht="75" customHeight="1" spans="1:9">
+      <c r="A9" s="3">
+        <v>44304</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>

--- a/奋斗日程.xlsx
+++ b/奋斗日程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17745" windowHeight="12390"/>
+    <workbookView windowWidth="18165" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>Leetcode</t>
+  </si>
   <si>
     <t>Linux系统编程</t>
   </si>
   <si>
-    <t>Leetcode</t>
-  </si>
-  <si>
     <t>MySQL</t>
   </si>
   <si>
@@ -40,10 +40,9 @@
     <t>王道考研</t>
   </si>
   <si>
-    <t>黑马P1~4
-系统安装、目录和文件操作</t>
-  </si>
-  <si>
+    <r>
+      <t>数组：</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -52,7 +51,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">数组：
+      <t xml:space="preserve">
 33、搜索插入位置---二分查找（简单）
 27、移除元素---快慢指针思想（简单）
 </t>
@@ -87,6 +86,59 @@
         <scheme val="minor"/>
       </rPr>
       <t>59、螺旋矩阵II---循环不变量原则（中等）</t>
+    </r>
+  </si>
+  <si>
+    <t>黑马P1~4
+系统安装、目录和文件操作</t>
+  </si>
+  <si>
+    <r>
+      <t>链表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+203、删除链表元素---虚拟头结点（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>707、设计链表---考察操作（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+206、反转链表---基础但容易忘（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>142、环形链表II---快慢指针（中等）</t>
     </r>
   </si>
   <si>
@@ -96,52 +148,6 @@
 查找与检索</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">链表：
-203、删除链表元素---虚拟头结点（简单）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>707、设计链表---考察操作（中等）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-206、反转链表---基础但容易忘（简单）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>142、环形链表II---快慢指针（中等）</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">必知必会：
 第13章 分组数据
 第14章 使用子查询
@@ -152,19 +158,31 @@
 P29~P38</t>
   </si>
   <si>
-    <t>黑马P12~17
-软件包安装与卸载
-压缩与解压缩
-其他指令</t>
-  </si>
-  <si>
-    <t>哈希表：
+    <r>
+      <t>哈希表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 242、有效的字母异位词---数组哈希（简单）
 349、连个数组的交集---无序set（简单）
 202、快乐数---递归实现（简单）
 1、两数之和---无序map（简单）
 字符串：
 344、反转字符串---双指针（简单）</t>
+    </r>
+  </si>
+  <si>
+    <t>黑马P12~17
+软件包安装与卸载
+压缩与解压缩
+其他指令</t>
   </si>
   <si>
     <t>必知必会：
@@ -176,10 +194,9 @@
 第11章 关联容器</t>
   </si>
   <si>
-    <t>黑马P18~24
-vim的操作指令</t>
-  </si>
-  <si>
+    <r>
+      <t>哈希表：</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -188,7 +205,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">哈希表：
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -212,9 +229,33 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-字符串：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字符串：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 541、反转字符串II---（简单）</t>
     </r>
+  </si>
+  <si>
+    <t>黑马P18~24
+vim的操作指令</t>
   </si>
   <si>
     <t>必知必会：
@@ -222,10 +263,9 @@
 第18章 全文本搜索</t>
   </si>
   <si>
-    <t>黑马P25~27
-gcc的四大步骤及指令</t>
-  </si>
-  <si>
+    <r>
+      <t>哈希表：</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -234,9 +274,29 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">哈希表：
+      <t xml:space="preserve">
 383、赎金信---数组哈希（简单）
-字符串： 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字符串：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
 剑指offer 05、替换空格---尾部双指针（简单）
 剑指offer 58、左旋转字符串---拼接（简单）
 </t>
@@ -253,6 +313,10 @@
     </r>
   </si>
   <si>
+    <t>黑马P25~27
+gcc的四大步骤及指令</t>
+  </si>
+  <si>
     <t>必知必会：
 第19章 插入数据
 第20章 更新和删除数据</t>
@@ -263,16 +327,48 @@
 函数指针</t>
   </si>
   <si>
+    <r>
+      <t>字符串：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+28、实现strStr()---KMP算法（简单）
+459、重复的子字符串---KMP的应用（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>栈与队列：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+232、用栈实现队列---基础（简单）
+225、用队列实现栈---基础（简单）</t>
+    </r>
+  </si>
+  <si>
     <t>黑马P28~36
 静态库、共享库</t>
-  </si>
-  <si>
-    <t>字符串：
-28、实现strStr()---KMP算法（简单）
-459、重复的子字符串---KMP的应用（简单）
-栈与队列：
-232、用栈实现队列---基础（简单）
-225、用队列实现栈---基础（简单）</t>
   </si>
   <si>
     <t>必知必会：
@@ -284,6 +380,9 @@
   </si>
   <si>
     <r>
+      <t>栈与队列：</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -291,7 +390,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">栈与队列：
+      <t xml:space="preserve">
 20、有效括号---哈希表（简单） 
 1047、删除字符串的所有相邻重复项---（简单）
 </t>
@@ -335,63 +434,56 @@
 第24章 使用游标</t>
   </si>
   <si>
+    <r>
+      <t>队列：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+347、前K个高频元素---最小堆优先序列（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>71、简化路径---（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
     <t>黑马P37~40
 gdb调试</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>队列：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-347、前K个高频元素---最小堆优先序列（中等）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>71、简化路径---（中等）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t>必知必会：
@@ -401,6 +493,89 @@
   <si>
     <t>STL：
 priority_queue</t>
+  </si>
+  <si>
+    <r>
+      <t>二叉树遍历：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">144、二叉树前序遍历---两种方法（中等）
+94、二叉树中序遍历---非递归方法（中等）
+145、二叉树后序遍历---两种方法（中等）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>层序遍历及其应用：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+102、二叉树层序遍历---队列实现（中等）
+107、层序遍历II---反转（中等）
+199、二叉树得右视图---层序遍历应用（中等）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">637、二叉树的层平均值---（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>429、N叉树的层序遍历---（中等）
+515、在每个树行中找最大值---（中等）
+116、填充每个节点的下一个右侧节点指针（中等）
+117、填充每个节点的下一个右侧节点指针2（中等）</t>
+    </r>
+  </si>
+  <si>
+    <t>必知必会：
+第27章 全球化和本地化
+第28章 安全管理
+第29章 数据库维护
+第30章 改善性能</t>
   </si>
 </sst>
 </file>
@@ -408,12 +583,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +597,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -431,21 +627,93 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,129 +728,49 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -597,187 +785,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,21 +990,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,20 +1018,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,11 +1061,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,10 +1084,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,10 +1096,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -920,121 +1108,121 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,13 +1239,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1381,15 +1569,15 @@
   <sheetPr/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="26.75" customWidth="1"/>
-    <col min="3" max="3" width="41.4166666666667" customWidth="1"/>
+    <col min="2" max="2" width="45.25" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="6" width="17.75" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
@@ -1444,10 +1632,10 @@
       <c r="A3" s="3">
         <v>44298</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1465,7 +1653,7 @@
       <c r="A4" s="3">
         <v>44299</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1486,10 +1674,10 @@
       <c r="A5" s="3">
         <v>44300</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1505,10 +1693,10 @@
       <c r="A6" s="3">
         <v>44301</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1526,13 +1714,13 @@
       <c r="A7" s="3">
         <v>44302</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="1"/>
@@ -1547,10 +1735,10 @@
       <c r="A8" s="3">
         <v>44303</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1564,10 +1752,10 @@
       <c r="A9" s="3">
         <v>44304</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1581,11 +1769,17 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="10" ht="210" customHeight="1" spans="1:9">
+      <c r="A10" s="3">
+        <v>44305</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1593,7 +1787,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>

--- a/奋斗日程.xlsx
+++ b/奋斗日程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18165" windowHeight="12390"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Leetcode</t>
   </si>
@@ -41,6 +41,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>数组：</t>
     </r>
     <r>
@@ -94,6 +101,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>链表：</t>
     </r>
     <r>
@@ -159,6 +173,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>哈希表：</t>
     </r>
     <r>
@@ -195,6 +216,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>哈希表：</t>
     </r>
     <r>
@@ -264,6 +292,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>哈希表：</t>
     </r>
     <r>
@@ -328,6 +363,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>字符串：</t>
     </r>
     <r>
@@ -380,6 +422,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>栈与队列：</t>
     </r>
     <r>
@@ -435,6 +484,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>队列：</t>
     </r>
     <r>
@@ -496,6 +552,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>二叉树遍历：</t>
     </r>
     <r>
@@ -571,11 +634,74 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">黑马P41~44
+makefile 入门：
+一个规则：目标、依赖、命令
+两个函数：src 和 obj </t>
+  </si>
+  <si>
     <t>必知必会：
 第27章 全球化和本地化
 第28章 安全管理
 第29章 数据库维护
 第30章 改善性能</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二叉树遍历：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+226、翻转二叉树---递归后序遍历（简单）
+589、N叉树的前序遍历---（简单） 
+590、N叉树的后序遍历---（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二叉树属性：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+101、对称二叉树---外对外，里对里（简单）
+</t>
+    </r>
+  </si>
+  <si>
+    <t>黑马P45~46
+三个自动变量：$@  $^ $&lt;
+文件在不同目录下的makefile编写</t>
+  </si>
+  <si>
+    <t>175、组合两个表（连结表的知识）
+176、第二高的薪水（ifnull函数的使用）</t>
   </si>
 </sst>
 </file>
@@ -583,8 +709,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -605,6 +731,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -613,6 +755,105 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,121 +868,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -785,187 +911,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,30 +1102,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1014,21 +1116,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,6 +1146,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1084,10 +1210,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1096,133 +1222,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1569,16 +1695,16 @@
   <sheetPr/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="45.25" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
     <col min="5" max="6" width="17.75" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="20.25" customWidth="1"/>
@@ -1776,9 +1902,11 @@
       <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1786,11 +1914,19 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+    <row r="11" ht="91" customHeight="1" spans="1:9">
+      <c r="A11" s="3">
+        <v>44306</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>

--- a/奋斗日程.xlsx
+++ b/奋斗日程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="11730" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Leetcode</t>
   </si>
@@ -703,6 +703,16 @@
     <t>175、组合两个表（连结表的知识）
 176、第二高的薪水（ifnull函数的使用）</t>
   </si>
+  <si>
+    <t>104、二叉树的深度---两种方法（简单）
+559、N叉树的深度---（简单）
+111、二叉树的最小深度---（简单）</t>
+  </si>
+  <si>
+    <t>181、超过经理收入的员工（同一个表的连结）
+196、删除重复的电子邮箱（delete一个表内的东西）
+1777、每家商店的产品价格（case when、group by）</t>
+  </si>
 </sst>
 </file>
 
@@ -710,8 +720,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -730,8 +740,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,6 +831,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -753,23 +846,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,90 +878,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -911,187 +921,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,47 +1112,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1176,6 +1145,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1202,6 +1197,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1210,10 +1220,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,133 +1232,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1695,8 +1705,8 @@
   <sheetPr/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1933,11 +1943,17 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    <row r="12" ht="97" customHeight="1" spans="1:9">
+      <c r="A12" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>

--- a/奋斗日程.xlsx
+++ b/奋斗日程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11730" windowHeight="9270"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Leetcode</t>
   </si>
@@ -37,7 +37,7 @@
     <t>redis</t>
   </si>
   <si>
-    <t>王道考研</t>
+    <t>计算机基础</t>
   </si>
   <si>
     <r>
@@ -713,6 +713,42 @@
 196、删除重复的电子邮箱（delete一个表内的东西）
 1777、每家商店的产品价格（case when、group by）</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>222、完全二叉树的节点个数---二分查找+位运算（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+110、平衡二叉树---从底至顶，时间复杂度（简单）</t>
+    </r>
+  </si>
+  <si>
+    <t>黑马P47~57
+系统IO编程</t>
+  </si>
+  <si>
+    <t>177、第N高的薪水（函数的写法）
+184、部门工资最高的员工（中等）</t>
+  </si>
+  <si>
+    <t>计算机网络
+1、5层结构
+2、网络层</t>
+  </si>
 </sst>
 </file>
 
@@ -720,8 +756,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -740,6 +776,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -748,22 +842,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,16 +859,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -799,24 +881,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,35 +913,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -866,28 +924,6 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -921,187 +957,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,6 +1166,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1141,6 +1188,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,56 +1242,12 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1220,10 +1256,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1232,137 +1268,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1382,6 +1418,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1705,14 +1744,14 @@
   <sheetPr/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="45.25" customWidth="1"/>
+    <col min="2" max="2" width="49.875" customWidth="1"/>
     <col min="3" max="3" width="29.375" customWidth="1"/>
     <col min="4" max="4" width="28.25" customWidth="1"/>
     <col min="5" max="6" width="17.75" customWidth="1"/>
@@ -1960,16 +1999,26 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+    <row r="13" ht="90" customHeight="1" spans="1:9">
+      <c r="A13" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1"/>

--- a/奋斗日程.xlsx
+++ b/奋斗日程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="13170" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Leetcode</t>
   </si>
@@ -31,13 +31,13 @@
     <t>数据结构 与 算法</t>
   </si>
   <si>
+    <t>计算机基础</t>
+  </si>
+  <si>
     <t>Linux网络编程</t>
   </si>
   <si>
     <t>redis</t>
-  </si>
-  <si>
-    <t>计算机基础</t>
   </si>
   <si>
     <r>
@@ -749,14 +749,89 @@
 1、5层结构
 2、网络层</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">257、二叉树的所有路径---递归、回溯（简单）
+572、另一个树的子树---哈希法（简单）
+404、左叶子之和---思路、递归（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>513、找树左下角的值---回溯（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+112、路径总和---递归思路（简单）</t>
+    </r>
+  </si>
+  <si>
+    <t>黑马P58~68
+函数、系统文件</t>
+  </si>
+  <si>
+    <t>计算机网络
+ip协议</t>
+  </si>
+  <si>
+    <r>
+      <t>113、路径总和II---递归+回溯！！（中等）
+105、从前序与中序遍历序列构造二叉树---分而治之（中等）
+106、从中序与后序遍历序列构造二叉树---分而治之（中等）
+654、最大二叉树---递归、数组分组（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+617、合并二叉树---遍历的应用之一（简单）
+700、二叉搜索树---基础（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98、验证二叉搜索树---基础（中等）</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -783,6 +858,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -790,31 +901,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -828,23 +966,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,69 +989,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,37 +1032,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,49 +1200,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,91 +1212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,6 +1223,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1162,17 +1246,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,6 +1274,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1212,15 +1305,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,15 +1323,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1256,10 +1331,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1268,137 +1343,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1421,6 +1496,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1742,24 +1820,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="49.875" customWidth="1"/>
+    <col min="2" max="2" width="52.75" customWidth="1"/>
     <col min="3" max="3" width="29.375" customWidth="1"/>
     <col min="4" max="4" width="28.25" customWidth="1"/>
     <col min="5" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1785,8 +1864,9 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="79.5" customHeight="1" spans="1:9">
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" ht="79.5" customHeight="1" spans="1:10">
       <c r="A2" s="3">
         <v>44297</v>
       </c>
@@ -1802,8 +1882,9 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" ht="76.5" customHeight="1" spans="1:9">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" ht="76.5" customHeight="1" spans="1:10">
       <c r="A3" s="3">
         <v>44298</v>
       </c>
@@ -1818,13 +1899,14 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="108" customHeight="1" spans="1:9">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" ht="108" customHeight="1" spans="1:10">
       <c r="A4" s="3">
         <v>44299</v>
       </c>
@@ -1844,8 +1926,9 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" ht="91" customHeight="1" spans="1:9">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" ht="91" customHeight="1" spans="1:10">
       <c r="A5" s="3">
         <v>44300</v>
       </c>
@@ -1863,8 +1946,9 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" ht="99.75" customHeight="1" spans="1:9">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" ht="99.75" customHeight="1" spans="1:10">
       <c r="A6" s="3">
         <v>44301</v>
       </c>
@@ -1884,8 +1968,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" ht="90" customHeight="1" spans="1:9">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" ht="90" customHeight="1" spans="1:10">
       <c r="A7" s="3">
         <v>44302</v>
       </c>
@@ -1905,8 +1990,9 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" ht="82" customHeight="1" spans="1:9">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" ht="82" customHeight="1" spans="1:10">
       <c r="A8" s="3">
         <v>44303</v>
       </c>
@@ -1922,8 +2008,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" ht="75" customHeight="1" spans="1:9">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" ht="75" customHeight="1" spans="1:10">
       <c r="A9" s="3">
         <v>44304</v>
       </c>
@@ -1943,8 +2030,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" ht="210" customHeight="1" spans="1:9">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" ht="210" customHeight="1" spans="1:10">
       <c r="A10" s="3">
         <v>44305</v>
       </c>
@@ -1962,8 +2050,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" ht="91" customHeight="1" spans="1:9">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" ht="91" customHeight="1" spans="1:10">
       <c r="A11" s="3">
         <v>44306</v>
       </c>
@@ -1981,8 +2070,9 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" ht="97" customHeight="1" spans="1:9">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" ht="97" customHeight="1" spans="1:10">
       <c r="A12" s="3">
         <v>44307</v>
       </c>
@@ -1998,8 +2088,9 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" ht="90" customHeight="1" spans="1:9">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" ht="90" customHeight="1" spans="1:10">
       <c r="A13" s="3">
         <v>44308</v>
       </c>
@@ -2014,26 +2105,40 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" ht="90" customHeight="1" spans="1:10">
+      <c r="A14" s="3">
+        <v>44309</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" ht="121" customHeight="1" spans="1:10">
+      <c r="A15" s="3">
+        <v>44310</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2041,8 +2146,9 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2052,8 +2158,9 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2063,8 +2170,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2074,8 +2182,9 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2085,8 +2194,9 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2096,8 +2206,9 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2107,8 +2218,9 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2118,8 +2230,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2129,8 +2242,9 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2140,8 +2254,9 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2151,8 +2266,9 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2162,8 +2278,9 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2173,8 +2290,9 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2184,8 +2302,9 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2195,8 +2314,9 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2206,8 +2326,9 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2217,8 +2338,9 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2228,8 +2350,9 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2239,6 +2362,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/奋斗日程.xlsx
+++ b/奋斗日程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13170" windowHeight="12780"/>
+    <workbookView windowWidth="22410" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Leetcode</t>
   </si>
@@ -795,7 +795,35 @@
   </si>
   <si>
     <r>
-      <t>113、路径总和II---递归+回溯！！（中等）
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">113、路径总和II---递归+回溯！！（中等）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二叉树的修改与构造：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 105、从前序与中序遍历序列构造二叉树---分而治之（中等）
 106、从中序与后序遍历序列构造二叉树---分而治之（中等）
 654、最大二叉树---递归、数组分组（中等）</t>
@@ -810,6 +838,27 @@
       </rPr>
       <t xml:space="preserve">
 617、合并二叉树---遍历的应用之一（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二叉搜索树的属性：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 700、二叉搜索树---基础（简单）
 </t>
     </r>
@@ -822,6 +871,243 @@
         <scheme val="minor"/>
       </rPr>
       <t>98、验证二叉搜索树---基础（中等）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">530、二叉搜索树的最小绝对差---递归+双指针（简单）
+501、二叉搜索树中的众数---递归+双指针（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>538、把二叉搜索树转换为累加树---反中序遍历（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二叉树公共祖先问题：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>236、二叉树的最近公共祖先---递归+回溯、难（中等）</t>
+    </r>
+  </si>
+  <si>
+    <t>黑马P69~75
+遍历目录的实现
+dup和dup2函数</t>
+  </si>
+  <si>
+    <t>178、分数排名（同样的数据自身比较）</t>
+  </si>
+  <si>
+    <t>STL:
+105 ALGORITHMS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">235、二叉搜索树的最近公共祖先---（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二叉搜索树中的操作：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>701、二叉搜索树中的插入操作---（中等）
+450、删除二叉搜素树中的节点---（中等）
+669、修剪二叉搜索树---（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>构造二叉搜索树：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+108、将有序数组转换为二叉搜索树---（简单）
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>回溯算法--组合：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>77、组合---（中等）
+17、电话号码的字母组合---（中等）
+39、组合总和---（中等）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40、组合总和II---去重问题（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贪心算法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+455、分发饼干---贪心入门（简单）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+376、摆动序列----（中等）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>53、最大子序和---（简单）</t>
     </r>
   </si>
 </sst>
@@ -830,9 +1116,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -858,16 +1144,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,31 +1174,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -925,6 +1196,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -932,11 +1211,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -958,7 +1244,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -966,7 +1252,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -980,7 +1266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -988,15 +1273,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1032,13 +1318,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,19 +1468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,7 +1480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,133 +1492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,15 +1509,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1283,17 +1560,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1323,6 +1589,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1331,10 +1617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1343,133 +1629,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1822,8 +2108,8 @@
   <sheetPr/>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2132,7 +2418,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" ht="121" customHeight="1" spans="1:10">
+    <row r="15" ht="172" customHeight="1" spans="1:10">
       <c r="A15" s="3">
         <v>44310</v>
       </c>
@@ -2148,21 +2434,35 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+    <row r="16" ht="118" customHeight="1" spans="1:10">
+      <c r="A16" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+    <row r="17" ht="127" customHeight="1" spans="1:10">
+      <c r="A17" s="3">
+        <v>44312</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2172,9 +2472,13 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+    <row r="18" ht="99" customHeight="1" spans="1:10">
+      <c r="A18" s="3">
+        <v>44324</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2184,9 +2488,13 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+    <row r="19" ht="89" customHeight="1" spans="1:10">
+      <c r="A19" s="3">
+        <v>44325</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>

--- a/奋斗日程.xlsx
+++ b/奋斗日程.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Leetcode</t>
   </si>
@@ -953,6 +953,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">235、二叉搜索树的最近公共祖先---（简单）
 </t>
     </r>
@@ -1025,6 +1032,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>回溯算法--组合：</t>
     </r>
     <r>
@@ -1053,6 +1067,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>40、组合总和II---去重问题（中等）</t>
     </r>
     <r>
@@ -1108,6 +1129,149 @@
         <scheme val="minor"/>
       </rPr>
       <t>53、最大子序和---（简单）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回溯算法--分割：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">131、分割回文串---回溯分割问题（中等）
+93、复原IP地址---分割问题（中等）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贪心算法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">122、买卖股票的最佳时机II---还可用动态规划（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55、跳跃游戏---用画图方式辅助理解（中等）
+45、跳跃游戏II---难很多，不好理解（中等）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>回溯算法--去重：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>491、递增子序列---（中等）
+46、全排列---深入（中等）
+47、全排列II---前面二者结合（中等）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>贪心算法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1005、K次取反后最大化的数组和---（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">134、加油站---不是很懂，要二刷（中等）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>135、分发糖果---不能一蹴而就（困难）</t>
     </r>
   </si>
 </sst>
@@ -1116,9 +1280,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1144,15 +1308,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1160,7 +1317,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1174,7 +1331,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1196,14 +1360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -1211,16 +1367,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1244,13 +1401,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1266,16 +1430,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1318,120 +1482,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1444,61 +1656,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,6 +1687,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1551,15 +1724,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1571,6 +1735,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1592,15 +1765,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1617,10 +1781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1629,16 +1793,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1650,10 +1814,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1662,100 +1829,97 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2108,8 +2272,8 @@
   <sheetPr/>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2504,9 +2668,13 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+    <row r="20" ht="144" customHeight="1" spans="1:10">
+      <c r="A20" s="3">
+        <v>44326</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2516,9 +2684,13 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+    <row r="21" ht="60" customHeight="1" spans="1:10">
+      <c r="A21" s="3">
+        <v>44328</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2528,9 +2700,13 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+    <row r="22" ht="74" customHeight="1" spans="1:10">
+      <c r="A22" s="3">
+        <v>44329</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>

--- a/奋斗日程.xlsx
+++ b/奋斗日程.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FightingForOffer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E852F1C1-3E19-4614-84B8-9DB75F58517D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22410" windowHeight="11790"/>
+    <workbookView xWindow="5880" yWindow="1485" windowWidth="21600" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Leetcode</t>
   </si>
@@ -1274,18 +1280,17 @@
       <t>135、分发糖果---不能一蹴而就（困难）</t>
     </r>
   </si>
+  <si>
+    <t>黑马视频学习到P124
+即完成进程间通信部分</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1308,147 +1313,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1461,213 +1329,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1675,255 +1364,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1951,62 +1398,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2264,19 +1670,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="52.75" customWidth="1"/>
@@ -2288,7 +1694,7 @@
     <col min="10" max="10" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2316,7 +1722,7 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" ht="79.5" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>44297</v>
       </c>
@@ -2334,7 +1740,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" ht="76.5" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>44298</v>
       </c>
@@ -2356,7 +1762,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" ht="108" customHeight="1" spans="1:10">
+    <row r="4" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>44299</v>
       </c>
@@ -2378,7 +1784,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" ht="91" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" ht="90.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>44300</v>
       </c>
@@ -2398,7 +1804,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" ht="99.75" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>44301</v>
       </c>
@@ -2420,7 +1826,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" ht="90" customHeight="1" spans="1:10">
+    <row r="7" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>44302</v>
       </c>
@@ -2442,7 +1848,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" ht="82" customHeight="1" spans="1:10">
+    <row r="8" spans="1:10" ht="81.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>44303</v>
       </c>
@@ -2460,7 +1866,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" ht="75" customHeight="1" spans="1:10">
+    <row r="9" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>44304</v>
       </c>
@@ -2482,7 +1888,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" ht="210" customHeight="1" spans="1:10">
+    <row r="10" spans="1:10" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>44305</v>
       </c>
@@ -2502,7 +1908,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" ht="91" customHeight="1" spans="1:10">
+    <row r="11" spans="1:10" ht="90.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>44306</v>
       </c>
@@ -2522,7 +1928,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" ht="97" customHeight="1" spans="1:10">
+    <row r="12" spans="1:10" ht="96.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>44307</v>
       </c>
@@ -2540,7 +1946,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" ht="90" customHeight="1" spans="1:10">
+    <row r="13" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>44308</v>
       </c>
@@ -2562,7 +1968,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" ht="90" customHeight="1" spans="1:10">
+    <row r="14" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>44309</v>
       </c>
@@ -2582,7 +1988,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" ht="172" customHeight="1" spans="1:10">
+    <row r="15" spans="1:10" ht="171.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>44310</v>
       </c>
@@ -2598,7 +2004,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" ht="118" customHeight="1" spans="1:10">
+    <row r="16" spans="1:10" ht="117.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>44311</v>
       </c>
@@ -2620,7 +2026,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" ht="127" customHeight="1" spans="1:10">
+    <row r="17" spans="1:10" ht="126.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>44312</v>
       </c>
@@ -2636,7 +2042,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" ht="99" customHeight="1" spans="1:10">
+    <row r="18" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>44324</v>
       </c>
@@ -2652,7 +2058,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" ht="89" customHeight="1" spans="1:10">
+    <row r="19" spans="1:10" ht="89.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>44325</v>
       </c>
@@ -2668,7 +2074,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" ht="144" customHeight="1" spans="1:10">
+    <row r="20" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>44326</v>
       </c>
@@ -2684,7 +2090,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" ht="60" customHeight="1" spans="1:10">
+    <row r="21" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>44328</v>
       </c>
@@ -2700,7 +2106,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" ht="74" customHeight="1" spans="1:10">
+    <row r="22" spans="1:10" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>44329</v>
       </c>
@@ -2716,10 +2122,14 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>44354</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2728,7 +2138,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2740,7 +2150,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2752,7 +2162,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2764,7 +2174,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2776,7 +2186,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2788,7 +2198,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2800,7 +2210,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2812,7 +2222,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2824,7 +2234,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2836,7 +2246,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2849,8 +2259,8 @@
       <c r="J33" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/奋斗日程.xlsx
+++ b/奋斗日程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FightingForOffer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E852F1C1-3E19-4614-84B8-9DB75F58517D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC38BFC3-6F5F-41BD-8F88-4D5F9B09017D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1485" windowWidth="21600" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Leetcode</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Linux网络编程</t>
-  </si>
-  <si>
-    <t>redis</t>
   </si>
   <si>
     <r>
@@ -553,10 +550,6 @@
 第26章 管理事务处理</t>
   </si>
   <si>
-    <t>STL：
-priority_queue</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1285,12 +1278,53 @@
 即完成进程间通信部分</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>深入理解计算机系统
+第一章 概述
+第二章 数据的表示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>重温makefile的编写
+视频看到P132，即信号的入门</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能指针
+shared_ptr</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成信号部分
+重点在于，信号的捕捉、子进程回收</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVN</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STL：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>priority_queue</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1347,6 +1381,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1370,7 +1410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1400,6 +1440,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1678,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1717,8 +1760,8 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
+      <c r="I1" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="J1" s="2"/>
     </row>
@@ -1727,10 +1770,10 @@
         <v>44297</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1745,18 +1788,18 @@
         <v>44298</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1767,16 +1810,16 @@
         <v>44299</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1789,13 +1832,13 @@
         <v>44300</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1809,16 +1852,16 @@
         <v>44301</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1831,17 +1874,17 @@
         <v>44302</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1853,11 +1896,11 @@
         <v>44303</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1871,16 +1914,16 @@
         <v>44304</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
+      <c r="E9" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1893,13 +1936,13 @@
         <v>44305</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1913,13 +1956,13 @@
         <v>44306</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1933,11 +1976,11 @@
         <v>44307</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1951,18 +1994,18 @@
         <v>44308</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1973,16 +2016,16 @@
         <v>44309</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1993,7 +2036,7 @@
         <v>44310</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2009,16 +2052,16 @@
         <v>44311</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2031,7 +2074,7 @@
         <v>44312</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2047,7 +2090,7 @@
         <v>44324</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2063,7 +2106,7 @@
         <v>44325</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2079,7 +2122,7 @@
         <v>44326</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2095,7 +2138,7 @@
         <v>44328</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2111,7 +2154,7 @@
         <v>44329</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2128,32 +2171,44 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>44358</v>
+      </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>44359</v>
+      </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>

--- a/奋斗日程.xlsx
+++ b/奋斗日程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FightingForOffer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69FABD7-4C00-4247-8CB2-5096311F2B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FA9FDC-D864-441B-BF25-E41805227B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="3990" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Leetcode</t>
   </si>
@@ -1447,6 +1447,95 @@
   <si>
     <t>线程同步：信号量
 完成系统编程部分的视频学习</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习概念部分：
+各层协议</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成简单的socket编程</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">746、使用最小花费爬楼梯---十分基础，但不会（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>62、不同路径---二维动规基础（中等）
+63、不同路径II---（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP
+三次握手连接
+四次握手释放</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态规划---基础篇：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+509、斐波那契树---动规入门（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>70、爬楼梯---（简单）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">343、整数拆分---两种方法，值得推敲（中等）
+96、不同的二叉搜索树---画图理解（中等）
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划---背包问题：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>多进程并发</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程并发</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1585,7 +1674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1629,6 +1718,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1906,22 +1998,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="52.75" customWidth="1"/>
-    <col min="3" max="3" width="29.375" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
-    <col min="5" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="20.25" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
+    <col min="6" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1"/>
     <col min="10" max="10" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1931,22 +2023,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>48</v>
@@ -1960,10 +2052,10 @@
       <c r="B2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1978,18 +2070,18 @@
       <c r="B3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
@@ -2000,16 +2092,16 @@
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2022,13 +2114,13 @@
       <c r="B5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2042,16 +2134,16 @@
       <c r="B6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2064,17 +2156,17 @@
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2087,10 +2179,10 @@
         <v>55</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2104,16 +2196,16 @@
       <c r="B9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2126,13 +2218,13 @@
       <c r="B10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -2146,13 +2238,13 @@
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2167,10 +2259,10 @@
         <v>32</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2184,18 +2276,18 @@
       <c r="B13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
@@ -2206,16 +2298,16 @@
       <c r="B14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
@@ -2242,16 +2334,16 @@
       <c r="B16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2358,16 +2450,16 @@
         <v>44354</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="1"/>
+      <c r="H23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
@@ -2376,14 +2468,14 @@
         <v>44358</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2394,10 +2486,10 @@
         <v>44359</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2412,10 +2504,10 @@
       <c r="B26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2430,10 +2522,10 @@
       <c r="B27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2448,10 +2540,10 @@
       <c r="B28" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2466,10 +2558,10 @@
       <c r="B29" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2482,10 +2574,10 @@
         <v>44364</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2493,10 +2585,14 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>44365</v>
+      </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2505,9 +2601,13 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+    <row r="32" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>44368</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2517,10 +2617,16 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+    <row r="33" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>44369</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2529,6 +2635,36 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
+    <row r="34" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>44370</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>44371</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>44372</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/奋斗日程.xlsx
+++ b/奋斗日程.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FightingForOffer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FightingForOffer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FA9FDC-D864-441B-BF25-E41805227B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE98473-7519-466A-89AE-A8FAA242D34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="3990" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="1335" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Leetcode</t>
   </si>
@@ -1527,15 +1516,99 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>动态规划---背包问题：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>多进程并发</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>多线程并发</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP有限状态</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>select实现多路IO转接</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态规划---01背包问题：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>416、分割等和子集---识别出是背包问题（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1049、最后一块石头的重量II ---贪心+背包（中等）
+494、目标和---计算填满背包的方法数（中等）
+474、一和零---背包的维度为二（中等）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态规划---完全背包问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+518、零钱兑换II---（中等）
+377、组合总数---内外层遍历的顺序（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>322、零钱兑换---又有不同（中等）
+279、完全平方数---和上一题异曲同工（中等）
+139、单词拆分---遍历顺序的调整（中等）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoll反应堆模型</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1998,11 +2071,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2650,11 +2723,9 @@
       <c r="A35" s="2">
         <v>44371</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2662,7 +2733,50 @@
         <v>44372</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>44373</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>44374</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>44397</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>44400</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/奋斗日程.xlsx
+++ b/奋斗日程.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FightingForOffer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE98473-7519-466A-89AE-A8FAA242D34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8D13D6-B370-4DB0-AB99-ADB9FFD1DB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="1335" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="750" windowWidth="21600" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Leetcode</t>
   </si>
@@ -63,34 +63,6 @@
 P29~P38</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>哈希表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-242、有效的字母异位词---数组哈希（简单）
-349、连个数组的交集---无序set（简单）
-202、快乐数---递归实现（简单）
-1、两数之和---无序map（简单）
-字符串：
-344、反转字符串---双指针（简单）</t>
-    </r>
-  </si>
-  <si>
     <t>黑马P12~17
 软件包安装与卸载
 压缩与解压缩
@@ -127,53 +99,6 @@
     <t>c++ primer：
 try  throw  catch语句
 函数指针</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>字符串：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-28、实现strStr()---KMP算法（简单）
-459、重复的子字符串---KMP的应用（简单）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>栈与队列：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-232、用栈实现队列---基础（简单）
-225、用队列实现栈---基础（简单）</t>
-    </r>
   </si>
   <si>
     <t>黑马P28~36
@@ -215,54 +140,6 @@
 第30章 改善性能</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>二叉树遍历：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-226、翻转二叉树---递归后序遍历（简单）
-589、N叉树的前序遍历---（简单） 
-590、N叉树的后序遍历---（简单）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>二叉树属性：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-101、对称二叉树---外对外，里对里（简单）
-</t>
-    </r>
-  </si>
-  <si>
     <t>黑马P45~46
 三个自动变量：$@  $^ $&lt;
 文件在不同目录下的makefile编写</t>
@@ -272,11 +149,6 @@
 176、第二高的薪水（ifnull函数的使用）</t>
   </si>
   <si>
-    <t>104、二叉树的深度---两种方法（简单）
-559、N叉树的深度---（简单）
-111、二叉树的最小深度---（简单）</t>
-  </si>
-  <si>
     <t>181、超过经理收入的员工（同一个表的连结）
 196、删除重复的电子邮箱（delete一个表内的东西）
 1777、每家商店的产品价格（case when、group by）</t>
@@ -315,44 +187,6 @@
 105 ALGORITHMS</t>
   </si>
   <si>
-    <r>
-      <t>贪心算法：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1005、K次取反后最大化的数组和---（简单）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">134、加油站---不是很懂，要二刷（中等）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>135、分发糖果---不能一蹴而就（困难）</t>
-    </r>
-  </si>
-  <si>
     <t>黑马视频学习到P124
 即完成进程间通信部分</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -414,69 +248,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">37、解数独---N皇后的提升（困难）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>贪心算法：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>860、柠檬水找零---真贪心（简单）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>406、根据身高重建队列---跟发糖有相似、难（中等）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
@@ -527,58 +298,6 @@
   </si>
   <si>
     <r>
-      <t>栈与队列：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-20、有效括号---哈希表（简单） 
-1047、删除字符串的所有相邻重复项---（简单）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>150、逆波兰表达式求值---思路（中等）</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>239、滑动窗口最大值---单调队列（困难）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>队列：</t>
     </r>
     <r>
@@ -604,6 +323,628 @@
       <t xml:space="preserve">347、前K个高频元素---最小堆优先序列（中等）
 71、简化路径---（中等）
 </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>回溯算法--去重：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>491、递增子序列---（中等）
+46、全排列---深入（中等）
+47、全排列II---前面二者结合（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>回溯算法--组合：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>77、组合---（中等）
+17、电话号码的字母组合---（中等）
+39、组合总和---（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>452、用最少数量的箭射气球---想法与代码实现难（中等）
+435、无重叠区间---排序怎么排、确实很难（中等）
+763、划分字母区间---与回溯不同，陌生（中等）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">56、合并区间---有前面基础做起来就不难（中等）
+738、单调递增的数字---难想，不能暴力解（中等）
+714、买卖股票的最佳时机含手续费---动态规划（中等）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>968、监控二叉树---结合了树的遍历、混合知识（困难）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程同步：
+条件变量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程同步：信号量
+完成系统编程部分的视频学习</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习概念部分：
+各层协议</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成简单的socket编程</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP
+三次握手连接
+四次握手释放</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">343、整数拆分---两种方法，值得推敲（中等）
+96、不同的二叉搜索树---画图理解（中等）
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>多进程并发</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程并发</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP有限状态</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>select实现多路IO转接</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态规划---01背包问题：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>416、分割等和子集---识别出是背包问题（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1049、最后一块石头的重量II ---贪心+背包（中等）
+494、目标和---计算填满背包的方法数（中等）
+474、一和零---背包的维度为二（中等）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态规划---完全背包问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+518、零钱兑换II---（中等）
+377、组合总数---内外层遍历的顺序（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>322、零钱兑换---又有不同（中等）
+279、完全平方数---和上一题异曲同工（中等）
+139、单词拆分---遍历顺序的调整（中等）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoll反应堆模型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>数组：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">33、搜索插入位置---二分查找（简单）
+27、移除元素---快慢指针思想（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>209、长度最小子数组---滑动窗口（中等）
+59、螺旋矩阵II---循环不变量原则（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>链表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>203、删除链表元素---虚拟头结点（简单）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>707、设计链表---考察操作（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>206、反转链表---基础但容易忘（简单）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>142、环形链表II---快慢指针（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>哈希表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">15、三数之和---排序+双指针（中等）
+18、四数之和---排序+双指针（中等）
+454、四数相加II---分组+哈希（中等）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字符串：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>541、反转字符串II---（简单）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>哈希表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>383、赎金信---数组哈希（简单）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字符串：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">剑指offer 05、替换空格---尾部双指针（简单）
+剑指offer 58、左旋转字符串---拼接（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>151、翻转字符串里的单词---多指针（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>字符串：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">28、实现strStr()---KMP算法（简单）
+459、重复的子字符串---KMP的应用（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>栈与队列：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>232、用栈实现队列---基础（简单）
+225、用队列实现栈---基础（简单）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>栈与队列：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">20、有效括号---哈希表（简单） 
+1047、删除字符串的所有相邻重复项---（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>150、逆波兰表达式求值---思路（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>239、滑动窗口最大值---单调队列（困难）</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -674,11 +1015,22 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">637、二叉树的层平均值---（简单）
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>637、二叉树的层平均值---（简单）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -708,115 +1060,38 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>数组：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-33、搜索插入位置---二分查找（简单）
-27、移除元素---快慢指针思想（简单）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>209、长度最小子数组---滑动窗口（中等）
-59、螺旋矩阵II---循环不变量原则（中等）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>链表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-203、删除链表元素---虚拟头结点（简单）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>707、设计链表---考察操作（中等）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-206、反转链表---基础但容易忘（简单）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>142、环形链表II---快慢指针（中等）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>哈希表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">15、三数之和---排序+双指针（中等）
-18、四数之和---排序+双指针（中等）
-454、四数相加II---分组+哈希（中等）
+    <t>104、二叉树的深度---两种方法（简单）
+559、N叉树的深度---（简单）
+111、二叉树的最小深度---（简单）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>二叉树遍历：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">226、翻转二叉树---递归后序遍历（简单）
+589、N叉树的前序遍历---（简单） 
+590、N叉树的后序遍历---（简单）
 </t>
     </r>
     <r>
@@ -827,35 +1102,139 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>字符串：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-541、反转字符串II---（简单）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>哈希表：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-383、赎金信---数组哈希（简单）
+      <t>二叉树属性：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>101、对称二叉树---外对外，里对里（简单）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>222、完全二叉树的节点个数---二分查找+位运算（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>110、平衡二叉树---从底至顶，时间复杂度（简单）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">257、二叉树的所有路径---递归、回溯（简单）
+572、另一个树的子树---哈希法（简单）
+404、左叶子之和---思路、递归（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>513、找树左下角的值---回溯（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>112、路径总和---递归思路（简单）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>113、路径总和II---递归+回溯！！（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -866,90 +1245,43 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>字符串：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-剑指offer 05、替换空格---尾部双指针（简单）
-剑指offer 58、左旋转字符串---拼接（简单）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>151、翻转字符串里的单词---多指针（中等）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>回溯算法--去重：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>491、递增子序列---（中等）
-46、全排列---深入（中等）
-47、全排列II---前面二者结合（中等）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>回溯算法--分割：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">131、分割回文串---回溯分割问题（中等）
-93、复原IP地址---分割问题（中等）
+      <t>二叉树的修改与构造：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">105、从前序与中序遍历序列构造二叉树---分而治之（中等）
+106、从中序与后序遍历序列构造二叉树---分而治之（中等）
+654、最大二叉树---递归、数组分组（中等）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">617、合并二叉树---遍历的应用之一（简单）
 </t>
     </r>
     <r>
@@ -960,54 +1292,78 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>贪心算法：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">122、买卖股票的最佳时机II---还可用动态规划（简单）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>55、跳跃游戏---用画图方式辅助理解（中等）
-45、跳跃游戏II---难很多，不好理解（中等）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>40、组合总和II---去重问题（中等）</t>
+      <t>二叉搜索树的属性：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>700、二叉搜索树---基础（简单）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98、验证二叉搜索树---基础（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">530、二叉搜索树的最小绝对差---递归+双指针（简单）
+501、二叉搜索树中的众数---递归+双指针（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>538、把二叉搜索树转换为累加树---反中序遍历（中等）</t>
     </r>
     <r>
       <rPr>
@@ -1028,92 +1384,54 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>贪心算法：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-455、分发饼干---贪心入门（简单）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>376、摆动序列----（中等）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>53、最大子序和---（简单）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>222、完全二叉树的节点个数---二分查找+位运算（中等）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-110、平衡二叉树---从底至顶，时间复杂度（简单）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">235、二叉搜索树的最近公共祖先---（简单）
+      <t>二叉树公共祖先问题：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>236、二叉树的最近公共祖先---递归+回溯、难（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>235、二叉搜索树的最近公共祖先---（简单）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1170,27 +1488,43 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-108、将有序数组转换为二叉搜索树---（简单）
-</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">530、二叉搜索树的最小绝对差---递归+双指针（简单）
-501、二叉搜索树中的众数---递归+双指针（简单）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>538、把二叉搜索树转换为累加树---反中序遍历（中等）</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>108、将有序数组转换为二叉搜索树---（简单）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40、组合总和II---去重问题（中等）</t>
     </r>
     <r>
       <rPr>
@@ -1211,73 +1545,41 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>二叉树公共祖先问题：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>236、二叉树的最近公共祖先---递归+回溯、难（中等）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>回溯算法--组合：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>77、组合---（中等）
-17、电话号码的字母组合---（中等）
-39、组合总和---（中等）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>113、路径总和II---递归+回溯！！（中等）</t>
+      <t>贪心算法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">455、分发饼干---贪心入门（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>376、摆动序列----（中等）</t>
     </r>
     <r>
       <rPr>
@@ -1293,12 +1595,53 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>53、最大子序和---（简单）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>回溯算法--分割：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">131、分割回文串---回溯分割问题（中等）
+93、复原IP地址---分割问题（中等）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>二叉树的修改与构造：</t>
+      <t>贪心算法：</t>
     </r>
     <r>
       <rPr>
@@ -1314,26 +1657,82 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">105、从前序与中序遍历序列构造二叉树---分而治之（中等）
-106、从中序与后序遍历序列构造二叉树---分而治之（中等）
-654、最大二叉树---递归、数组分组（中等）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">617、合并二叉树---遍历的应用之一（简单）
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">122、买卖股票的最佳时机II---还可用动态规划（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55、跳跃游戏---用画图方式辅助理解（中等）
+45、跳跃游戏II---难很多，不好理解（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>贪心算法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1005、K次取反后最大化的数组和---（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">134、加油站---不是很懂，要二刷（中等）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>135、分发糖果---不能一蹴而就（困难）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">37、解数独---N皇后的提升（困难）
 </t>
     </r>
     <r>
@@ -1341,79 +1740,11 @@
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>二叉搜索树的属性：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-700、二叉搜索树---基础（简单）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98、验证二叉搜索树---基础（中等）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">257、二叉树的所有路径---递归、回溯（简单）
-572、另一个树的子树---哈希法（简单）
-404、左叶子之和---思路、递归（简单）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>513、找树左下角的值---回溯（中等）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-112、路径总和---递归思路（简单）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>452、用最少数量的箭射气球---想法与代码实现难（中等）
-435、无重叠区间---排序怎么排、确实很难（中等）
-763、划分字母区间---与回溯不同，陌生（中等）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">56、合并区间---有前面基础做起来就不难（中等）
-738、单调递增的数字---难想，不能暴力解（中等）
-714、买卖股票的最佳时机含手续费---动态规划（中等）
-</t>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贪心算法：</t>
     </r>
     <r>
       <rPr>
@@ -1424,32 +1755,104 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>968、监控二叉树---结合了树的遍历、混合知识（困难）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程同步：
-条件变量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程同步：信号量
-完成系统编程部分的视频学习</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习概念部分：
-各层协议</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成简单的socket编程</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">746、使用最小花费爬楼梯---十分基础，但不会（简单）
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>860、柠檬水找零---真贪心（简单）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>406、根据身高重建队列---跟发糖有相似、难（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态规划---基础篇：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>509、斐波那契树---动规入门（简单）
+70、爬楼梯---（简单）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>746、使用最小花费爬楼梯---十分基础，但不会（简单）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1467,12 +1870,35 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>TCP
-三次握手连接
-四次握手释放</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+    <r>
+      <t>哈希表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">242、有效的字母异位词---数组哈希（简单）
+349、连个数组的交集---无序set（简单）
+202、快乐数---递归实现（简单）
+1、两数之和---无序map（简单）
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1482,53 +1908,30 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>动态规划---基础篇：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-509、斐波那契树---动规入门（简单）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>70、爬楼梯---（简单）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">343、整数拆分---两种方法，值得推敲（中等）
-96、不同的二叉搜索树---画图理解（中等）
-</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>多进程并发</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>多线程并发</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCP有限状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>select实现多路IO转接</t>
+      <t>字符串：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>344、反转字符串---双指针（简单）</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1541,38 +1944,56 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>动态规划---01背包问题：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>416、分割等和子集---识别出是背包问题（中等）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1049、最后一块石头的重量II ---贪心+背包（中等）
-494、目标和---计算填满背包的方法数（中等）
-474、一和零---背包的维度为二（中等）
+      <t>动态规划---练习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>198、打家劫舍---经典（中等）
+213、打家劫舍II---环形数组（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>337、打家劫舍III---树形动态规划入门（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1584,31 +2005,232 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>动态规划---完全背包问题</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-518、零钱兑换II---（中等）
-377、组合总数---内外层遍历的顺序（中等）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>322、零钱兑换---又有不同（中等）
-279、完全平方数---和上一题异曲同工（中等）
-139、单词拆分---遍历顺序的调整（中等）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>epoll反应堆模型</t>
+      <t>动态规划---股票问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">121、买卖股票的最佳时机---暴力、贪心、dp（简单）
+122、买卖股票的最佳时机II---（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123、买卖股票的最佳时机III---各种状态的分析（困难）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">188、买卖股票的最佳时机IV---上一题的进阶（困难）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>309、最佳买卖股票时机含冷冻期---状态分析难（中等）
+714、买卖股票的最佳时机含手续费---二刷（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程池</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态规划---子序列问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>300、最长递增子序列---入门题，递推公式要理解（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>674、最长连续递增序列---其实不简单，dp意义不同（简单）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>718、最长重复子数组---滚动数组要有所体会（中等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1143、最长公共子序列---递推公式难（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1035、不相交的线---等同最长公共子序列（中等）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>53、最大子序列和---贪心难、连续要体现（简单）
+392、判断子序列---双指针、动规（简单）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>115、不同的子序列---从递归想到动规（困难）</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1705,6 +2327,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1712,7 +2335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1747,7 +2370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1759,9 +2382,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1778,7 +2398,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1794,6 +2414,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2071,11 +2697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2090,40 +2716,40 @@
     <col min="10" max="10" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="12"/>
+      <c r="I1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44297</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>58</v>
+      <c r="B2" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="3" t="s">
@@ -2140,8 +2766,8 @@
       <c r="A3" s="2">
         <v>44298</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>59</v>
+      <c r="B3" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -2162,18 +2788,18 @@
       <c r="A4" s="2">
         <v>44299</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
+      <c r="B4" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2184,15 +2810,15 @@
       <c r="A5" s="2">
         <v>44300</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>60</v>
+      <c r="B5" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2204,18 +2830,18 @@
       <c r="A6" s="2">
         <v>44301</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>61</v>
+      <c r="B6" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2226,19 +2852,19 @@
       <c r="A7" s="2">
         <v>44302</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
+      <c r="B7" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2248,13 +2874,13 @@
       <c r="A8" s="2">
         <v>44303</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>55</v>
+      <c r="B8" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -2266,37 +2892,37 @@
       <c r="A9" s="2">
         <v>44304</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>56</v>
+      <c r="B9" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44305</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>57</v>
+      <c r="B10" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -2304,19 +2930,19 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="90.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44306</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
+      <c r="B11" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2328,13 +2954,13 @@
       <c r="A12" s="2">
         <v>44307</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
+      <c r="B12" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2346,20 +2972,20 @@
       <c r="A13" s="2">
         <v>44308</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>65</v>
+      <c r="B13" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2368,18 +2994,18 @@
       <c r="A14" s="2">
         <v>44309</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>70</v>
+      <c r="B14" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2388,8 +3014,8 @@
       <c r="A15" s="2">
         <v>44310</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>69</v>
+      <c r="B15" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2404,18 +3030,18 @@
       <c r="A16" s="2">
         <v>44311</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>67</v>
+      <c r="B16" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2426,8 +3052,8 @@
       <c r="A17" s="2">
         <v>44312</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>66</v>
+      <c r="B17" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2442,8 +3068,8 @@
       <c r="A18" s="2">
         <v>44324</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>68</v>
+      <c r="B18" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2458,8 +3084,8 @@
       <c r="A19" s="2">
         <v>44325</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>64</v>
+      <c r="B19" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2474,8 +3100,8 @@
       <c r="A20" s="2">
         <v>44326</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>63</v>
+      <c r="B20" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2490,8 +3116,8 @@
       <c r="A21" s="2">
         <v>44328</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>62</v>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2506,8 +3132,8 @@
       <c r="A22" s="2">
         <v>44329</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>42</v>
+      <c r="B22" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2524,14 +3150,14 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="5" t="s">
-        <v>43</v>
+      <c r="D23" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="5" t="s">
-        <v>44</v>
+      <c r="H23" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2542,12 +3168,12 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="5" t="s">
-        <v>45</v>
+      <c r="D24" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="5" t="s">
-        <v>46</v>
+      <c r="F24" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2560,8 +3186,8 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="5" t="s">
-        <v>47</v>
+      <c r="D25" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -2574,12 +3200,12 @@
       <c r="A26" s="2">
         <v>44360</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>54</v>
+      <c r="B26" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="5" t="s">
-        <v>50</v>
+      <c r="D26" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2592,12 +3218,12 @@
       <c r="A27" s="2">
         <v>44361</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>53</v>
+      <c r="B27" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="5" t="s">
-        <v>51</v>
+      <c r="D27" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2610,12 +3236,12 @@
       <c r="A28" s="2">
         <v>44362</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>71</v>
+      <c r="B28" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="5" t="s">
-        <v>52</v>
+      <c r="D28" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2628,12 +3254,12 @@
       <c r="A29" s="2">
         <v>44363</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>72</v>
+      <c r="B29" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="5" t="s">
-        <v>73</v>
+      <c r="D29" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2648,8 +3274,8 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="5" t="s">
-        <v>74</v>
+      <c r="D30" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2663,8 +3289,8 @@
         <v>44365</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="5" t="s">
-        <v>75</v>
+      <c r="C31" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2674,12 +3300,12 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44368</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>79</v>
+      <c r="B32" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2690,15 +3316,15 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44369</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>76</v>
+      <c r="B33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2712,71 +3338,106 @@
       <c r="A34" s="2">
         <v>44370</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>78</v>
+      <c r="B34" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44371</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="5" t="s">
-        <v>81</v>
+      <c r="B35" s="14"/>
+      <c r="C35" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44372</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>82</v>
+      <c r="C36" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44373</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>83</v>
+      <c r="C37" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44374</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>84</v>
+      <c r="C38" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44397</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>85</v>
+      <c r="B39" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44398</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>86</v>
+      <c r="B40" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44400</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>88</v>
+      <c r="B41" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>44404</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>44405</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>44412</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44413</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/奋斗日程.xlsx
+++ b/奋斗日程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FightingForOffer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8D13D6-B370-4DB0-AB99-ADB9FFD1DB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C0D7B5-5A72-40B6-9061-3B0D044D81C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="750" windowWidth="21600" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12450" yWindow="1200" windowWidth="21600" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Leetcode</t>
   </si>
@@ -2205,7 +2205,30 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>53、最大子序列和---贪心难、连续要体现（简单）
+      <t xml:space="preserve">53、最大子序列和---贪心难、连续要体现（简单）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态规划---编辑距离篇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 392、判断子序列---双指针、动规（简单）</t>
     </r>
     <r>
@@ -2230,6 +2253,60 @@
         <scheme val="minor"/>
       </rPr>
       <t>115、不同的子序列---从递归想到动规（困难）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">583、两个字符串的删除操作---递推中两个都要删除（中等）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>72、编辑距离---自底向上、自上而下（困难）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态规划---回文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+647、回文子串---动规、双指针（中等）
+516、最长回文子序列---（中等）</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2697,11 +2774,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3432,12 +3509,20 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44413</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>44414</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/奋斗日程.xlsx
+++ b/奋斗日程.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FightingForOffer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C0D7B5-5A72-40B6-9061-3B0D044D81C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD166BAC-8C38-4CD4-A7DA-D9298F3849D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="1200" windowWidth="21600" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="795" windowWidth="21600" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Leetcode</t>
   </si>
@@ -2307,6 +2307,268 @@
       <t xml:space="preserve">
 647、回文子串---动规、双指针（中等）
 516、最长回文子序列---（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>udp实现并发服务器
+本地套接字通信</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20天刷题计划：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Day 1 二分查找：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>34、在排序数组中查找元素的第一个和最后一个位置-（中等）
+33、搜索旋转排序数组---（中等）
+74、搜索二维矩阵---（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Day 2 二分查找：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>153、寻找旋转排序数组中的最小值---图形结合（中等）
+162、寻找峰值---（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Day 3 双指针：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>82、删除排序链表中的重复元素II---哑结点（中等）
+15、三数之和---二刷（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Day 4 双指针：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>844、比较含退格的字符串---用了堆栈的思想（简单）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>986、区间列表的交集---不会做（中等）
+11、盛最多水的容器---有贪心的感觉（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Day 5 滑动窗口：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>438、找到字符串中所有子母异位词---（中等）
+713、乘积小于K的子数组---（中等）
+209、长度最小的子数组---（中等）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Day 6 广度/深度优先搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200、岛屿数量---DFS（中等）
+547、省份数量---（中等）</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2774,11 +3036,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3525,6 +3787,62 @@
         <v>94</v>
       </c>
     </row>
+    <row r="47" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>44419</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>44432</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>44434</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
